--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB17EB57-5B5B-40CA-A7EA-3186A51515F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC96A1-4CC7-4837-9F7B-3B60199C7989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16440" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>tham số</t>
+  </si>
+  <si>
+    <t>dispatched</t>
+  </si>
+  <si>
+    <t>cử đi, điều phối</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +634,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC96A1-4CC7-4837-9F7B-3B60199C7989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFAE665-D1FF-46D5-8AEE-E7FE70F248A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16440" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="16440" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -122,6 +122,27 @@
   </si>
   <si>
     <t>cử đi, điều phối</t>
+  </si>
+  <si>
+    <t>occurred</t>
+  </si>
+  <si>
+    <t>xảy ra</t>
+  </si>
+  <si>
+    <t>preempted</t>
+  </si>
+  <si>
+    <t>phủ đầu, tay trên</t>
+  </si>
+  <si>
+    <t>termination</t>
+  </si>
+  <si>
+    <t>chấm dứt, kết thúc</t>
+  </si>
+  <si>
+    <t>đèn led công suất cao</t>
   </si>
 </sst>
 </file>
@@ -463,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,8 +614,14 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -603,6 +630,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -611,6 +641,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -619,6 +652,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -626,7 +662,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -634,12 +673,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFAE665-D1FF-46D5-8AEE-E7FE70F248A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB676207-6DF6-4589-9C26-BC4BB9917D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="16440" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>đèn led công suất cao</t>
+  </si>
+  <si>
+    <t>modity</t>
+  </si>
+  <si>
+    <t>phương thức</t>
+  </si>
+  <si>
+    <t>identify</t>
+  </si>
+  <si>
+    <t>nhận định</t>
   </si>
 </sst>
 </file>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +729,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB676207-6DF6-4589-9C26-BC4BB9917D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52695BFC-B5AD-400B-832B-59466010E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>nhận định</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>quyền ưu tiên</t>
+  </si>
+  <si>
+    <t>allocate</t>
+  </si>
+  <si>
+    <t>chỉ định</t>
   </si>
 </sst>
 </file>
@@ -496,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C23"/>
+  <dimension ref="A2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +757,22 @@
         <v>44</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,24 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52695BFC-B5AD-400B-832B-59466010E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55A963-6BEC-40B6-AC8F-B2829114120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14370" yWindow="1155" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -46,15 +56,6 @@
     <t>bản nhái, bản sao, dòng vô tính</t>
   </si>
   <si>
-    <t>orfinal</t>
-  </si>
-  <si>
-    <t>meaningful</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
     <t>exclude # include</t>
   </si>
   <si>
@@ -91,9 +92,6 @@
     <t>Arrow operator</t>
   </si>
   <si>
-    <t>toán tử mũi tên -&gt;</t>
-  </si>
-  <si>
     <t>collaboration skill</t>
   </si>
   <si>
@@ -106,9 +104,6 @@
     <t>tranh luận</t>
   </si>
   <si>
-    <t>PERIOD</t>
-  </si>
-  <si>
     <t>giai đoạn</t>
   </si>
   <si>
@@ -163,26 +158,90 @@
     <t>quyền ưu tiên</t>
   </si>
   <si>
-    <t>allocate</t>
-  </si>
-  <si>
     <t>chỉ định</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>hướng dẫn, chỉ thị</t>
+  </si>
+  <si>
+    <t>abort</t>
+  </si>
+  <si>
+    <t>hủy bỏ</t>
+  </si>
+  <si>
+    <t>reclaim</t>
+  </si>
+  <si>
+    <t>Ordinal number</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Meaningful</t>
+  </si>
+  <si>
+    <t>Allocate</t>
+  </si>
+  <si>
+    <t>Allocated</t>
+  </si>
+  <si>
+    <t>phân bổ</t>
+  </si>
+  <si>
+    <t>toán tử mũi tên (-&gt;)</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>cho phép</t>
+  </si>
+  <si>
+    <t>continue to exist</t>
+  </si>
+  <si>
+    <t>tiếp tục tồn tại</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>vai trò</t>
+  </si>
+  <si>
+    <t>concurrently</t>
+  </si>
+  <si>
+    <t>đồng thời, kiêm</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>yêu cầu</t>
+  </si>
+  <si>
+    <t>appropriately</t>
+  </si>
+  <si>
+    <t>thích hợp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -192,6 +251,19 @@
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -210,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,16 +290,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,272 +600,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C25"/>
+  <dimension ref="A2:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C26" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C29">
+    <sortCondition ref="B1:B29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55A963-6BEC-40B6-AC8F-B2829114120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC859E-C0E5-4259-852A-EB2AD11894B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="1155" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15390" yWindow="1035" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$46</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -234,6 +237,84 @@
   </si>
   <si>
     <t>thích hợp</t>
+  </si>
+  <si>
+    <t>represented</t>
+  </si>
+  <si>
+    <t>đại diện</t>
+  </si>
+  <si>
+    <t>Allocating</t>
+  </si>
+  <si>
+    <t>sự phân bố</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>mục tiêu</t>
+  </si>
+  <si>
+    <t>ensures a valid</t>
+  </si>
+  <si>
+    <t>đảm bảo hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimize </t>
+  </si>
+  <si>
+    <t>tối ưu hóa</t>
+  </si>
+  <si>
+    <t>cách sử dụng</t>
+  </si>
+  <si>
+    <t>non-sharable</t>
+  </si>
+  <si>
+    <t>không thể chia sẻ</t>
+  </si>
+  <si>
+    <t>acceptable</t>
+  </si>
+  <si>
+    <t>có thể chấp nhận được</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>chịu trách nhiệm</t>
+  </si>
+  <si>
+    <t>coordination</t>
+  </si>
+  <si>
+    <t>sự phối hợp</t>
+  </si>
+  <si>
+    <t>handing</t>
+  </si>
+  <si>
+    <t>trao tay, trao quyền</t>
+  </si>
+  <si>
+    <t>đòi lại</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>thực hiện</t>
+  </si>
+  <si>
+    <t>executing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usage </t>
   </si>
 </sst>
 </file>
@@ -600,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C41"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="71" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -614,31 +695,44 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>1</v>
+        <f>A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2</v>
+        <f t="shared" ref="A4:A65" si="0">A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
@@ -649,7 +743,8 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>51</v>
@@ -660,7 +755,8 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>52</v>
@@ -671,366 +767,646 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C29">
-    <sortCondition ref="B1:B29"/>
+  <autoFilter ref="B1:B46" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C46">
+      <sortCondition ref="B1:B46"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C40">
+    <sortCondition ref="B1:B40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC859E-C0E5-4259-852A-EB2AD11894B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E39F24A-8A92-4750-BB17-2FD280C0A85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15390" yWindow="1035" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13335" yWindow="1590" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -315,6 +315,93 @@
   </si>
   <si>
     <t xml:space="preserve">usage </t>
+  </si>
+  <si>
+    <t>infinitely</t>
+  </si>
+  <si>
+    <t>vô hạn</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>hiệu quả</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>phản ứng</t>
+  </si>
+  <si>
+    <t>minimizing</t>
+  </si>
+  <si>
+    <t>giảm thiểu</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>tăng</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>sự tương tác</t>
+  </si>
+  <si>
+    <t>completely</t>
+  </si>
+  <si>
+    <t>hoàn thành</t>
+  </si>
+  <si>
+    <t>boundedness</t>
+  </si>
+  <si>
+    <t>remaining</t>
+  </si>
+  <si>
+    <t>còn lại</t>
+  </si>
+  <si>
+    <t>the a mount of</t>
+  </si>
+  <si>
+    <t>sự gắng kết</t>
+  </si>
+  <si>
+    <t>preemptive</t>
+  </si>
+  <si>
+    <t>non-preemptive</t>
+  </si>
+  <si>
+    <t>không bị chiếm(độc quyền)</t>
+  </si>
+  <si>
+    <t>bị chiếm, phủ đầu(không độc quyền)</t>
+  </si>
+  <si>
+    <t>currently</t>
+  </si>
+  <si>
+    <t>hiện tại</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>cơ hội</t>
+  </si>
+  <si>
+    <t>technique</t>
+  </si>
+  <si>
+    <t>kỹ thuật</t>
   </si>
 </sst>
 </file>
@@ -683,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -731,7 +818,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A65" si="0">A3+1</f>
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -743,7 +830,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -755,7 +842,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -767,7 +854,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -779,7 +866,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -791,7 +878,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -803,7 +890,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -815,7 +902,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -827,7 +914,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -839,545 +926,603 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="0"/>
+        <f>A38+1</f>
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="0"/>
+        <f>A40+1</f>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" si="0"/>
+        <f>A41+1</f>
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f t="shared" si="0"/>
+        <f>A42+1</f>
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>14</v>
+      <c r="B43" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f t="shared" si="0"/>
+        <f>A43+1</f>
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f t="shared" si="0"/>
+        <f>A44+1</f>
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f t="shared" si="0"/>
+        <f>A45+1</f>
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f t="shared" si="0"/>
+        <f>A46+1</f>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f t="shared" si="0"/>
+        <f>A47+1</f>
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f t="shared" si="0"/>
+        <f>A48+1</f>
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f t="shared" si="0"/>
+        <f>A49+1</f>
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f t="shared" si="0"/>
+        <f>A50+1</f>
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f t="shared" si="0"/>
+        <f>A51+1</f>
         <v>51</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f t="shared" si="0"/>
+        <f>A52+1</f>
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f t="shared" si="0"/>
+        <f>A53+1</f>
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f t="shared" si="0"/>
+        <f>A54+1</f>
         <v>54</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f t="shared" si="0"/>
+        <f>A55+1</f>
         <v>55</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f t="shared" si="0"/>
+        <f>A56+1</f>
         <v>56</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f t="shared" si="0"/>
+        <f>A57+1</f>
         <v>57</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f t="shared" si="0"/>
+        <f>A58+1</f>
         <v>58</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f t="shared" si="0"/>
+        <f>A59+1</f>
         <v>59</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f t="shared" si="0"/>
+        <f>A60+1</f>
         <v>60</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f t="shared" si="0"/>
+        <f>A61+1</f>
         <v>61</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="0"/>
+        <f>A62+1</f>
         <v>62</v>
       </c>
       <c r="B63" s="4"/>
@@ -1385,7 +1530,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="0"/>
+        <f>A63+1</f>
         <v>63</v>
       </c>
       <c r="B64" s="4"/>
@@ -1393,16 +1538,16 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="0"/>
+        <f>A64+1</f>
         <v>64</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B46" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C46">
-      <sortCondition ref="B1:B46"/>
+  <autoFilter ref="B1:B65" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C65">
+      <sortCondition ref="B1:B65"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C40">

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E39F24A-8A92-4750-BB17-2FD280C0A85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1112A8ED-60F1-4173-89DF-8DDF8D27D483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="1590" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14190" yWindow="1305" windowWidth="12510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -402,6 +402,42 @@
   </si>
   <si>
     <t>kỹ thuật</t>
+  </si>
+  <si>
+    <t>oriented</t>
+  </si>
+  <si>
+    <t>định hướng</t>
+  </si>
+  <si>
+    <t>bound</t>
+  </si>
+  <si>
+    <t>reasonable</t>
+  </si>
+  <si>
+    <t>hợp lý</t>
+  </si>
+  <si>
+    <t>reasonable mix of … and …</t>
+  </si>
+  <si>
+    <t>IO bound, CPU bound(oriented)</t>
+  </si>
+  <si>
+    <t>auxiliary</t>
+  </si>
+  <si>
+    <t>phụ trợ</t>
+  </si>
+  <si>
+    <t>auxiliary memory</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>chiến lược</t>
   </si>
 </sst>
 </file>
@@ -768,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -779,10 +815,11 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -793,7 +830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -804,7 +841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>A2+1</f>
         <v>2</v>
@@ -816,7 +853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+1</f>
         <v>3</v>
@@ -828,7 +865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>A4+1</f>
         <v>4</v>
@@ -840,7 +877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>5</v>
@@ -852,7 +889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>A6+1</f>
         <v>6</v>
@@ -864,7 +901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>A7+1</f>
         <v>7</v>
@@ -876,7 +913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f>A8+1</f>
         <v>8</v>
@@ -888,7 +925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>9</v>
@@ -900,76 +937,75 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,10 +1014,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,10 +1026,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,10 +1038,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,10 +1050,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,10 +1062,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,10 +1074,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,9 +1086,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1060,10 +1098,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,10 +1110,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,11 +1122,9 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1096,10 +1132,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,10 +1144,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,10 +1156,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,10 +1168,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,10 +1180,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,10 +1192,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,10 +1204,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,10 +1216,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1192,10 +1228,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,10 +1240,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,10 +1252,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1228,10 +1264,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1276,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,10 +1288,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,10 +1300,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,10 +1312,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,10 +1324,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,10 +1336,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,10 +1348,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,10 +1360,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1336,10 +1372,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,205 +1384,267 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>A50+1</f>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>A51+1</f>
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>14</v>
+      <c r="B52" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>A52+1</f>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>A53+1</f>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>A54+1</f>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>A55+1</f>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>A56+1</f>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>A57+1</f>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>A58+1</f>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>A59+1</f>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>A60+1</f>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>A61+1</f>
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>121</v>
+      <c r="B62" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>A62+1</f>
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>A63+1</f>
         <v>63</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f>A64+1</f>
+        <f t="shared" ref="A65:A70" si="0">A64+1</f>
         <v>64</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B65" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C65">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D65">
       <sortCondition ref="B1:B65"/>
     </sortState>
   </autoFilter>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1112A8ED-60F1-4173-89DF-8DDF8D27D483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7484129-84EB-4858-B681-F480EB07D5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="1305" windowWidth="12510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14190" yWindow="1305" windowWidth="13575" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -438,6 +438,24 @@
   </si>
   <si>
     <t>chiến lược</t>
+  </si>
+  <si>
+    <t>timeslice</t>
+  </si>
+  <si>
+    <t>dấu chấm công</t>
+  </si>
+  <si>
+    <t>time quantum</t>
+  </si>
+  <si>
+    <t>thời gian định sẵn</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>trung bình</t>
   </si>
 </sst>
 </file>
@@ -807,7 +825,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -843,7 +861,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -855,7 +873,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -867,7 +885,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -879,7 +897,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -891,7 +909,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -903,7 +921,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -915,7 +933,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -927,7 +945,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -939,7 +957,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -952,7 +970,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -962,7 +980,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -974,7 +992,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -986,7 +1004,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -998,7 +1016,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1010,7 +1028,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1022,7 +1040,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1034,7 +1052,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1046,7 +1064,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1058,7 +1076,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1070,7 +1088,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1082,7 +1100,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1094,7 +1112,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1106,7 +1124,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1118,7 +1136,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1128,7 +1146,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1140,7 +1158,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1152,7 +1170,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1164,7 +1182,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1176,7 +1194,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1188,7 +1206,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1200,7 +1218,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1212,7 +1230,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1224,7 +1242,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f>A34+1</f>
+        <f t="shared" ref="A35:A64" si="1">A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1236,7 +1254,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f>A35+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1248,7 +1266,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f>A36+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1260,7 +1278,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f>A37+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1272,7 +1290,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f>A38+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1284,7 +1302,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f>A39+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1296,7 +1314,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f>A40+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1308,7 +1326,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f>A41+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1320,7 +1338,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f>A42+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1332,7 +1350,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f>A43+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1344,7 +1362,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f>A44+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1356,7 +1374,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f>A45+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1368,7 +1386,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f>A46+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1380,7 +1398,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f>A47+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -1392,7 +1410,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f>A48+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -1404,7 +1422,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f>A49+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1419,7 +1437,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f>A50+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -1431,7 +1449,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f>A51+1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -1443,7 +1461,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f>A52+1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -1455,7 +1473,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f>A53+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -1467,7 +1485,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f>A54+1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -1479,7 +1497,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f>A55+1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1491,7 +1509,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f>A56+1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -1503,7 +1521,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f>A57+1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -1515,7 +1533,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f>A58+1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -1527,7 +1545,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f>A59+1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -1539,7 +1557,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f>A60+1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1551,7 +1569,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f>A61+1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1563,7 +1581,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f>A62+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -1575,7 +1593,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f>A63+1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -1587,7 +1605,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" ref="A65:A70" si="0">A64+1</f>
+        <f t="shared" ref="A65:A70" si="2">A64+1</f>
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -1599,7 +1617,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1614,7 +1632,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1626,20 +1644,38 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E39F24A-8A92-4750-BB17-2FD280C0A85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C332EAE-61A3-40F9-A5D3-2FF9FF46AD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="1590" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14370" yWindow="1470" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -402,6 +402,60 @@
   </si>
   <si>
     <t>kỹ thuật</t>
+  </si>
+  <si>
+    <t>auxiliary</t>
+  </si>
+  <si>
+    <t>phụ trợ</t>
+  </si>
+  <si>
+    <t>auxiliary memory</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>trung bình</t>
+  </si>
+  <si>
+    <t>bound</t>
+  </si>
+  <si>
+    <t>IO bound, CPU bound(oriented)</t>
+  </si>
+  <si>
+    <t>oriented</t>
+  </si>
+  <si>
+    <t>định hướng</t>
+  </si>
+  <si>
+    <t>reasonable</t>
+  </si>
+  <si>
+    <t>hợp lý</t>
+  </si>
+  <si>
+    <t>reasonable mix of … and …</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>chiến lược</t>
+  </si>
+  <si>
+    <t>time quantum</t>
+  </si>
+  <si>
+    <t>thời gian định sẵn</t>
+  </si>
+  <si>
+    <t>timeslice</t>
+  </si>
+  <si>
+    <t>dấu chấm công</t>
   </si>
 </sst>
 </file>
@@ -768,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -782,7 +836,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -793,7 +847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -804,7 +858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>A2+1</f>
         <v>2</v>
@@ -816,7 +870,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+1</f>
         <v>3</v>
@@ -828,7 +882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>A4+1</f>
         <v>4</v>
@@ -840,7 +894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>5</v>
@@ -852,7 +906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>A6+1</f>
         <v>6</v>
@@ -864,7 +918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>A7+1</f>
         <v>7</v>
@@ -876,7 +930,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f>A8+1</f>
         <v>8</v>
@@ -888,7 +942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>9</v>
@@ -900,76 +954,78 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,10 +1034,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,10 +1046,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,10 +1058,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,10 +1070,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,10 +1082,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,10 +1094,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,9 +1106,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1060,10 +1118,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,10 +1130,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,10 +1142,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,10 +1154,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,11 +1166,9 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1120,10 +1176,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,10 +1188,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,10 +1200,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,10 +1212,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,10 +1224,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,10 +1236,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1192,10 +1248,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,10 +1260,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,10 +1272,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1228,10 +1284,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1296,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,10 +1308,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,10 +1320,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,10 +1344,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,10 +1356,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,10 +1368,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,10 +1380,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1336,10 +1392,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,201 +1404,278 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>A50+1</f>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>A51+1</f>
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>14</v>
+      <c r="B52" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>A52+1</f>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>A53+1</f>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>A54+1</f>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>A55+1</f>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>A56+1</f>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>A57+1</f>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>A58+1</f>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>A59+1</f>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>A60+1</f>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>A61+1</f>
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>A62+1</f>
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>A63+1</f>
         <v>63</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>A64+1</f>
         <v>64</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f>A65+1</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f>A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f>A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f>A68+1</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f>A69+1</f>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B65" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C332EAE-61A3-40F9-A5D3-2FF9FF46AD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA87451D-4831-4522-A9CC-48BF7668FC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14370" yWindow="1470" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -456,6 +456,24 @@
   </si>
   <si>
     <t>dấu chấm công</t>
+  </si>
+  <si>
+    <t>ˈav(ə)rij</t>
+  </si>
+  <si>
+    <t>Phonetic</t>
+  </si>
+  <si>
+    <t>suppose</t>
+  </si>
+  <si>
+    <t>giả sử</t>
+  </si>
+  <si>
+    <t>səˈpōz</t>
+  </si>
+  <si>
+    <t>burst time</t>
   </si>
 </sst>
 </file>
@@ -822,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -833,10 +851,12 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -846,8 +866,12 @@
       <c r="C1" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -857,10 +881,12 @@
       <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -869,10 +895,12 @@
       <c r="C3" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -881,10 +909,12 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -893,10 +923,12 @@
       <c r="C5" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -905,10 +937,12 @@
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -917,10 +951,12 @@
       <c r="C7" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -929,10 +965,12 @@
       <c r="C8" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -941,10 +979,12 @@
       <c r="C9" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -953,10 +993,12 @@
       <c r="C10" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -965,13 +1007,14 @@
       <c r="C11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -980,33 +1023,40 @@
       <c r="C12" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1015,10 +1065,12 @@
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1027,10 +1079,12 @@
       <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1039,10 +1093,12 @@
       <c r="C17" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1051,10 +1107,12 @@
       <c r="C18" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1063,10 +1121,12 @@
       <c r="C19" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1075,10 +1135,12 @@
       <c r="C20" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1087,10 +1149,12 @@
       <c r="C21" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1099,10 +1163,12 @@
       <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1111,10 +1177,12 @@
       <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1123,10 +1191,12 @@
       <c r="C24" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1135,10 +1205,12 @@
       <c r="C25" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1147,10 +1219,12 @@
       <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1159,20 +1233,24 @@
       <c r="C27" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1181,10 +1259,12 @@
       <c r="C29" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1193,10 +1273,12 @@
       <c r="C30" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1205,10 +1287,12 @@
       <c r="C31" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1217,10 +1301,12 @@
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1229,10 +1315,12 @@
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1241,10 +1329,12 @@
       <c r="C34" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f>A34+1</f>
+        <f t="shared" ref="A35:A70" si="1">A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1253,10 +1343,12 @@
       <c r="C35" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f>A35+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1265,10 +1357,12 @@
       <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f>A36+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1277,10 +1371,12 @@
       <c r="C37" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f>A37+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1289,10 +1385,12 @@
       <c r="C38" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f>A38+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1301,10 +1399,12 @@
       <c r="C39" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f>A39+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1313,10 +1413,12 @@
       <c r="C40" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f>A40+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1325,10 +1427,12 @@
       <c r="C41" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f>A41+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1337,10 +1441,12 @@
       <c r="C42" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f>A42+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1349,10 +1455,12 @@
       <c r="C43" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f>A43+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1361,10 +1469,12 @@
       <c r="C44" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f>A44+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1373,10 +1483,12 @@
       <c r="C45" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f>A45+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1385,10 +1497,12 @@
       <c r="C46" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f>A46+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1397,10 +1511,12 @@
       <c r="C47" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f>A47+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -1409,10 +1525,12 @@
       <c r="C48" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f>A48+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -1421,10 +1539,12 @@
       <c r="C49" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f>A49+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1433,10 +1553,12 @@
       <c r="C50" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f>A50+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -1445,10 +1567,12 @@
       <c r="C51" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f>A51+1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -1457,13 +1581,14 @@
       <c r="C52" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f>A52+1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -1472,10 +1597,12 @@
       <c r="C53" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f>A53+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -1484,10 +1611,12 @@
       <c r="C54" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f>A54+1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -1496,10 +1625,12 @@
       <c r="C55" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f>A55+1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1508,10 +1639,12 @@
       <c r="C56" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f>A56+1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -1520,10 +1653,12 @@
       <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f>A57+1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -1532,10 +1667,12 @@
       <c r="C58" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f>A58+1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -1544,10 +1681,12 @@
       <c r="C59" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f>A59+1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -1556,10 +1695,12 @@
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f>A60+1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1568,10 +1709,12 @@
       <c r="C61" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f>A61+1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -1580,10 +1723,12 @@
       <c r="C62" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f>A62+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -1592,10 +1737,12 @@
       <c r="C63" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f>A63+1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -1604,10 +1751,12 @@
       <c r="C64" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f>A64+1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -1616,65 +1765,93 @@
       <c r="C65" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f>A65+1</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f>A66+1</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f>A67+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <f>A68+1</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f>A69+1</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>78</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA87451D-4831-4522-A9CC-48BF7668FC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C1F5B7-4174-4C19-A5B4-5D714288F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="1470" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14190" yWindow="1305" windowWidth="12135" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -474,6 +474,21 @@
   </si>
   <si>
     <t>burst time</t>
+  </si>
+  <si>
+    <t>assume</t>
+  </si>
+  <si>
+    <t>giả định</t>
+  </si>
+  <si>
+    <t>progresses</t>
+  </si>
+  <si>
+    <t>tiến bộ</t>
+  </si>
+  <si>
+    <t>#non-preemptive</t>
   </si>
 </sst>
 </file>
@@ -840,17 +855,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -1554,7 +1569,9 @@
         <v>116</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -1581,10 +1598,9 @@
       <c r="C52" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -1852,6 +1868,22 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C1F5B7-4174-4C19-A5B4-5D714288F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE1A852-EFDD-48E3-8157-092CD9DBD466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="1305" windowWidth="12135" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14370" yWindow="1470" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -489,6 +489,18 @@
   </si>
   <si>
     <t>#non-preemptive</t>
+  </si>
+  <si>
+    <t>specified</t>
+  </si>
+  <si>
+    <t>explicit # implicit</t>
+  </si>
+  <si>
+    <t>tường minh # tiềm ẩn</t>
+  </si>
+  <si>
+    <t>ikˈsplisit # imˈplisit</t>
   </si>
 </sst>
 </file>
@@ -564,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,7 +586,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -901,7 +914,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A34" si="0">A2+1</f>
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -915,7 +928,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f t="shared" si="0"/>
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -929,7 +942,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -943,7 +956,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -957,7 +970,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -971,7 +984,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -985,7 +998,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -999,7 +1012,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1013,882 +1026,1007 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>154</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" ref="A35:A70" si="1">A34+1</f>
+        <f>A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="1"/>
+        <f>A35+1</f>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="1"/>
+        <f>A36+1</f>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="1"/>
+        <f>A37+1</f>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="1"/>
+        <f>A38+1</f>
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="1"/>
+        <f>A39+1</f>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="1"/>
+        <f>A40+1</f>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" si="1"/>
+        <f>A41+1</f>
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f t="shared" si="1"/>
+        <f>A42+1</f>
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f t="shared" si="1"/>
+        <f>A43+1</f>
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f t="shared" si="1"/>
+        <f>A44+1</f>
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f t="shared" si="1"/>
+        <f>A45+1</f>
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f t="shared" si="1"/>
+        <f>A46+1</f>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f t="shared" si="1"/>
+        <f>A47+1</f>
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f t="shared" si="1"/>
+        <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f t="shared" si="1"/>
+        <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f t="shared" si="1"/>
+        <f>A50+1</f>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f t="shared" si="1"/>
+        <f>A51+1</f>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f t="shared" si="1"/>
+        <f>A52+1</f>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f t="shared" si="1"/>
+        <f>A53+1</f>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f t="shared" si="1"/>
+        <f>A54+1</f>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f t="shared" si="1"/>
+        <f>A55+1</f>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f t="shared" si="1"/>
+        <f>A56+1</f>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f t="shared" si="1"/>
+        <f>A57+1</f>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f t="shared" si="1"/>
+        <f>A58+1</f>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f t="shared" si="1"/>
+        <f>A59+1</f>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f t="shared" si="1"/>
+        <f>A60+1</f>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f t="shared" si="1"/>
+        <f>A61+1</f>
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="1"/>
+        <f>A62+1</f>
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="1"/>
+        <f>A63+1</f>
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="1"/>
+        <f>A64+1</f>
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>14</v>
+      <c r="B65" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="1"/>
+        <f>A65+1</f>
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" si="1"/>
+        <f>A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f t="shared" si="1"/>
+        <f>A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <f t="shared" si="1"/>
+        <f>A68+1</f>
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f t="shared" si="1"/>
+        <f>A69+1</f>
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="A71" s="4">
+        <f>A70+1</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A72" s="4">
+        <f>A71+1</f>
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A73" s="4">
+        <f>A72+1</f>
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>150</v>
+      <c r="A74" s="4">
+        <f>A73+1</f>
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f>A74+1</f>
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f>A75+1</f>
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f>A76+1</f>
+        <v>76</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <f>A77+1</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f>A78+1</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f>A79+1</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f>A80+1</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f>A81+1</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f>A82+1</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f>A83+1</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f>A84+1</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f>A85+1</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f>A86+1</f>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B65" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C65">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E87">
       <sortCondition ref="B1:B65"/>
     </sortState>
   </autoFilter>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE1A852-EFDD-48E3-8157-092CD9DBD466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5067AE-A601-4EE0-9C07-8B9CF28CD6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="1470" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11910" yWindow="1245" windowWidth="12135" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -501,6 +501,30 @@
   </si>
   <si>
     <t>ikˈsplisit # imˈplisit</t>
+  </si>
+  <si>
+    <t>unidirectional</t>
+  </si>
+  <si>
+    <t>yo͞onədəˈrekSH(ə)n(ə)l</t>
+  </si>
+  <si>
+    <t>một chiều</t>
+  </si>
+  <si>
+    <t>unidirectional communication</t>
+  </si>
+  <si>
+    <t>ˈsentrəˌlīzd # dəˈstribyo͞odəd</t>
+  </si>
+  <si>
+    <t>centralized # distributed</t>
+  </si>
+  <si>
+    <t>tập trung # phân tán</t>
+  </si>
+  <si>
+    <t>centralied/ distributed system</t>
   </si>
 </sst>
 </file>
@@ -870,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1114,13 +1138,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1128,10 +1156,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1142,10 +1170,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1156,10 +1184,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1170,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1184,10 +1212,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1198,10 +1226,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1212,10 +1240,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1226,10 +1254,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1240,10 +1268,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1254,10 +1282,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1268,10 +1296,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1282,10 +1310,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1296,9 +1324,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
@@ -1308,14 +1338,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,12 +1350,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>154</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1338,10 +1366,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1352,10 +1380,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1366,10 +1394,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1380,10 +1408,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1394,10 +1422,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1408,10 +1436,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1422,10 +1450,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1436,10 +1464,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1450,10 +1478,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1464,10 +1492,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1478,10 +1506,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1492,10 +1520,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1506,10 +1534,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1520,10 +1548,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1534,10 +1562,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1548,10 +1576,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -1562,10 +1590,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -1576,10 +1604,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -1590,10 +1618,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1604,10 +1632,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
@@ -1618,15 +1646,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -1634,13 +1660,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -1648,10 +1676,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -1662,15 +1690,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -1678,13 +1704,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -1692,10 +1720,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -1706,10 +1734,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -1720,10 +1748,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1734,10 +1762,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1748,10 +1776,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -1762,10 +1790,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -1776,10 +1804,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -1790,10 +1818,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -1804,10 +1832,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -1818,10 +1846,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -1832,14 +1860,12 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1848,12 +1874,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1862,10 +1890,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -1875,11 +1903,11 @@
         <f>A70+1</f>
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>14</v>
+      <c r="B71" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -1889,11 +1917,11 @@
         <f>A71+1</f>
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>33</v>
+      <c r="B72" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -1904,10 +1932,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -1918,10 +1946,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -1932,10 +1960,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -1946,10 +1974,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -1959,16 +1987,32 @@
         <f>A76+1</f>
         <v>76</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="B77" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>A77+1</f>
         <v>77</v>
       </c>
+      <c r="B78" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5067AE-A601-4EE0-9C07-8B9CF28CD6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F91EB0-E08E-47A7-9A69-72EE4A1BAEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="1245" windowWidth="12135" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13845" yWindow="945" windowWidth="12585" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -525,6 +525,30 @@
   </si>
   <si>
     <t>centralied/ distributed system</t>
+  </si>
+  <si>
+    <t>Critical section</t>
+  </si>
+  <si>
+    <t>phần quan trọng(miền găng)</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>độc lập</t>
+  </si>
+  <si>
+    <t>satisfied</t>
+  </si>
+  <si>
+    <t>hài lòng</t>
+  </si>
+  <si>
+    <t>ˈsadəsˌfīd</t>
+  </si>
+  <si>
+    <t>ˌindəˈpendənt</t>
   </si>
 </sst>
 </file>
@@ -894,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -938,7 +962,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -952,7 +976,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -966,7 +990,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -980,7 +1004,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -994,7 +1018,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1008,7 +1032,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1022,7 +1046,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1036,7 +1060,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1050,7 +1074,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1064,7 +1088,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1080,7 +1104,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1096,7 +1120,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1110,7 +1134,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1122,7 +1146,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1134,7 +1158,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1152,7 +1176,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1166,7 +1190,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1180,7 +1204,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1194,7 +1218,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1208,7 +1232,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1222,7 +1246,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1236,7 +1260,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1250,7 +1274,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1264,7 +1288,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1278,7 +1302,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1292,7 +1316,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1306,7 +1330,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1320,7 +1344,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1334,7 +1358,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1346,7 +1370,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1362,7 +1386,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1376,7 +1400,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1390,7 +1414,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f>A34+1</f>
+        <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1404,7 +1428,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f>A35+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1418,7 +1442,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f>A36+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1432,7 +1456,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f>A37+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1446,7 +1470,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f>A38+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1460,7 +1484,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f>A39+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1474,7 +1498,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f>A40+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1488,7 +1512,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f>A41+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1502,7 +1526,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f>A42+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1516,7 +1540,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f>A43+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1530,7 +1554,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f>A44+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1544,7 +1568,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f>A45+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1558,7 +1582,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f>A46+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1572,7 +1596,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f>A47+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -1586,7 +1610,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f>A48+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -1600,7 +1624,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f>A49+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1614,7 +1638,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f>A50+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -1628,7 +1652,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f>A51+1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -1642,7 +1666,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f>A52+1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -1656,7 +1680,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f>A53+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -1672,7 +1696,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f>A54+1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -1686,7 +1710,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f>A55+1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1700,7 +1724,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f>A56+1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -1716,7 +1740,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f>A57+1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -1730,7 +1754,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f>A58+1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -1744,7 +1768,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f>A59+1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -1758,7 +1782,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f>A60+1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1772,7 +1796,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f>A61+1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -1786,7 +1810,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f>A62+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -1800,7 +1824,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f>A63+1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -1814,7 +1838,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f>A64+1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -1828,7 +1852,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f>A65+1</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -1842,7 +1866,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f>A66+1</f>
+        <f t="shared" ref="A67:A87" si="2">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -1856,7 +1880,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f>A67+1</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -1870,7 +1894,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <f>A68+1</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -1886,7 +1910,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f>A69+1</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -1900,7 +1924,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f>A70+1</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -1914,7 +1938,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f>A71+1</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -1928,7 +1952,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f>A72+1</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -1942,7 +1966,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <f>A73+1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -1956,7 +1980,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <f>A74+1</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -1970,7 +1994,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <f>A75+1</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -1984,7 +2008,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <f>A76+1</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -2002,7 +2026,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <f>A77+1</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -2016,55 +2040,79 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <f>A78+1</f>
+        <f t="shared" si="2"/>
         <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <f>A79+1</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <f>A80+1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <f>A81+1</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <f>A82+1</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <f>A83+1</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <f>A84+1</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <f>A85+1</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <f>A86+1</f>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
     </row>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE1A852-EFDD-48E3-8157-092CD9DBD466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4965BA6-84F4-459D-A965-B5FBB88E4514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="1470" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1275" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -501,6 +501,42 @@
   </si>
   <si>
     <t>ikˈsplisit # imˈplisit</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>sự phân loại</t>
+  </si>
+  <si>
+    <t>unidirectional</t>
+  </si>
+  <si>
+    <t>một chiều</t>
+  </si>
+  <si>
+    <t>Critical section</t>
+  </si>
+  <si>
+    <t>phần quan trọng(miền găng)</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>độc lập</t>
+  </si>
+  <si>
+    <t>ˌindəˈpendənt</t>
+  </si>
+  <si>
+    <t>satisfied</t>
+  </si>
+  <si>
+    <t>hài lòng</t>
+  </si>
+  <si>
+    <t>ˈsadəsˌfīd</t>
   </si>
 </sst>
 </file>
@@ -576,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,8 +622,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -914,7 +952,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -928,7 +966,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -942,7 +980,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -956,7 +994,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -970,7 +1008,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -984,7 +1022,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -998,7 +1036,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1012,7 +1050,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1026,7 +1064,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1040,7 +1078,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1056,7 +1094,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1072,7 +1110,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1086,7 +1124,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1098,7 +1136,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1110,7 +1148,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1124,7 +1162,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1138,7 +1176,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1152,7 +1190,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1166,7 +1204,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1180,7 +1218,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1194,7 +1232,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1208,7 +1246,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1222,7 +1260,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1236,7 +1274,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1250,7 +1288,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1264,7 +1302,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1278,7 +1316,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1292,7 +1330,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1304,7 +1342,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1320,7 +1358,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1334,7 +1372,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1348,7 +1386,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1362,7 +1400,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f>A34+1</f>
+        <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1376,7 +1414,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f>A35+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1390,7 +1428,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f>A36+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1404,7 +1442,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f>A37+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1418,7 +1456,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f>A38+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1432,7 +1470,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f>A39+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1446,7 +1484,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f>A40+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1460,7 +1498,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f>A41+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1474,7 +1512,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f>A42+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1488,7 +1526,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f>A43+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1502,7 +1540,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f>A44+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1516,7 +1554,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f>A45+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1530,7 +1568,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f>A46+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1544,7 +1582,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f>A47+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -1558,7 +1596,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f>A48+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -1572,7 +1610,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f>A49+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1586,7 +1624,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f>A50+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -1600,7 +1638,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f>A51+1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -1609,12 +1647,11 @@
       <c r="C52" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="5"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f>A52+1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -1630,7 +1667,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f>A53+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -1644,7 +1681,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f>A54+1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -1658,7 +1695,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f>A55+1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1674,7 +1711,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f>A56+1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -1688,7 +1725,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f>A57+1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -1702,7 +1739,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f>A58+1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -1716,7 +1753,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f>A59+1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -1730,7 +1767,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f>A60+1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1744,7 +1781,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f>A61+1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -1758,7 +1795,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f>A62+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -1772,7 +1809,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f>A63+1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -1786,7 +1823,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f>A64+1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -1800,7 +1837,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f>A65+1</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -1814,7 +1851,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f>A66+1</f>
+        <f t="shared" ref="A67:A87" si="2">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -1828,7 +1865,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f>A67+1</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -1844,7 +1881,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <f>A68+1</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -1858,7 +1895,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f>A69+1</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -1872,155 +1909,191 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f>A70+1</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f>A71+1</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f>A72+1</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <f>A73+1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <f>A74+1</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <f>A75+1</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <f>A76+1</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="B77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <f>A77+1</f>
+        <f t="shared" si="2"/>
         <v>77</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <f>A78+1</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
+      <c r="B79" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <f>A79+1</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <f>A80+1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <f>A81+1</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <f>A82+1</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <f>A83+1</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <f>A84+1</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <f>A85+1</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <f>A86+1</f>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
     </row>

--- a/tieng anh chuyen nganh.xlsx
+++ b/tieng anh chuyen nganh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4965BA6-84F4-459D-A965-B5FBB88E4514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410BD29-2C25-42E0-9F45-150F78454BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1275" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14130" yWindow="1755" windowWidth="13410" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
   <si>
     <t>surge arrester protects modular</t>
   </si>
@@ -537,6 +537,81 @@
   </si>
   <si>
     <t>ˈsadəsˌfīd</t>
+  </si>
+  <si>
+    <t>synchronization</t>
+  </si>
+  <si>
+    <t>đồng bộ hóa</t>
+  </si>
+  <si>
+    <t>siNGkrənəˈzāSH(ə)n</t>
+  </si>
+  <si>
+    <t>mutual exclusion</t>
+  </si>
+  <si>
+    <t>loại trừ lẫn nhau</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>phần tích</t>
+  </si>
+  <si>
+    <t>əˈnaləsəs</t>
+  </si>
+  <si>
+    <t>myo͞oCH(o͞o)əl</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>alternatively</t>
+  </si>
+  <si>
+    <t>unnecessarily</t>
+  </si>
+  <si>
+    <t>consuming</t>
+  </si>
+  <si>
+    <t>kənˈso͞omiNG</t>
+  </si>
+  <si>
+    <t>tiêu thụ</t>
+  </si>
+  <si>
+    <t>ôlˈtərnədiv</t>
+  </si>
+  <si>
+    <t>thay thế</t>
+  </si>
+  <si>
+    <t>pərpəs</t>
+  </si>
+  <si>
+    <t>mục đích</t>
+  </si>
+  <si>
+    <t>ˌənˌnesəˈserəlē</t>
+  </si>
+  <si>
+    <t>không cần thiết</t>
+  </si>
+  <si>
+    <t>siCHəˈwāSH(ə)n</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>tình hình</t>
+  </si>
+  <si>
+    <t>kridək(ə)l</t>
   </si>
 </sst>
 </file>
@@ -612,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,10 +697,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -952,7 +1025,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A34" si="0">A2+1</f>
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -966,7 +1039,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f t="shared" si="0"/>
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -980,7 +1053,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -994,7 +1067,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1008,7 +1081,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1022,7 +1095,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1036,1070 +1109,1252 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" ref="A35:A66" si="1">A34+1</f>
+        <f>A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="1"/>
+        <f>A35+1</f>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>154</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="1"/>
+        <f>A36+1</f>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="1"/>
+        <f>A37+1</f>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="1"/>
+        <f>A38+1</f>
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="1"/>
+        <f>A39+1</f>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="1"/>
+        <f>A40+1</f>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" si="1"/>
+        <f>A41+1</f>
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f t="shared" si="1"/>
+        <f>A42+1</f>
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f t="shared" si="1"/>
+        <f>A43+1</f>
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f t="shared" si="1"/>
+        <f>A44+1</f>
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f t="shared" si="1"/>
+        <f>A45+1</f>
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f t="shared" si="1"/>
+        <f>A46+1</f>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f t="shared" si="1"/>
+        <f>A47+1</f>
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f t="shared" si="1"/>
+        <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f t="shared" si="1"/>
+        <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f t="shared" si="1"/>
+        <f>A50+1</f>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f t="shared" si="1"/>
+        <f>A51+1</f>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f t="shared" si="1"/>
+        <f>A52+1</f>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f t="shared" si="1"/>
+        <f>A53+1</f>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f t="shared" si="1"/>
+        <f>A54+1</f>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f t="shared" si="1"/>
+        <f>A55+1</f>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f t="shared" si="1"/>
+        <f>A56+1</f>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f t="shared" si="1"/>
+        <f>A57+1</f>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f t="shared" si="1"/>
+        <f>A58+1</f>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f t="shared" si="1"/>
+        <f>A59+1</f>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f t="shared" si="1"/>
+        <f>A60+1</f>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f t="shared" si="1"/>
+        <f>A61+1</f>
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="1"/>
+        <f>A62+1</f>
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="1"/>
+        <f>A63+1</f>
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="1"/>
+        <f>A64+1</f>
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="1"/>
+        <f>A65+1</f>
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" ref="A67:A87" si="2">A66+1</f>
+        <f>A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f t="shared" si="2"/>
+        <f>A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>145</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <f t="shared" si="2"/>
+        <f>A68+1</f>
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f t="shared" si="2"/>
+        <f>A69+1</f>
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f t="shared" si="2"/>
+        <f>A70+1</f>
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f t="shared" si="2"/>
+        <f>A71+1</f>
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B72" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f t="shared" si="2"/>
+        <f>A72+1</f>
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="B73" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <f t="shared" si="2"/>
+        <f>A73+1</f>
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="B74" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <f t="shared" si="2"/>
+        <f>A74+1</f>
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <f t="shared" si="2"/>
+        <f>A75+1</f>
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="B76" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <f t="shared" si="2"/>
+        <f>A76+1</f>
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="B77" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <f t="shared" si="2"/>
+        <f>A77+1</f>
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>159</v>
-      </c>
+      <c r="B78" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <f t="shared" si="2"/>
+        <f>A78+1</f>
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" s="7"/>
+      <c r="B79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <f t="shared" si="2"/>
+        <f>A79+1</f>
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <f t="shared" si="2"/>
+        <f>A80+1</f>
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <f t="shared" si="2"/>
+        <f>A81+1</f>
         <v>81</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <f t="shared" si="2"/>
+        <f>A82+1</f>
         <v>82</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <f t="shared" si="2"/>
+        <f>A83+1</f>
         <v>83</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <f t="shared" si="2"/>
+        <f>A84+1</f>
         <v>84</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <f t="shared" si="2"/>
+        <f>A85+1</f>
         <v>85</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <f t="shared" si="2"/>
+        <f>A86+1</f>
         <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f>A87+1</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f>A88+1</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f>A89+1</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f>A90+1</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f>A91+1</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f>A92+1</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f>A93+1</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f>A94+1</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <f>A95+1</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <f>A96+1</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <f>A97+1</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <f>A98+1</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <f>A99+1</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <f>A100+1</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <f>A101+1</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <f>A102+1</f>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B65" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E87">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E103">
       <sortCondition ref="B1:B65"/>
     </sortState>
   </autoFilter>
